--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,6 +40,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>creepy</t>
   </si>
   <si>
@@ -49,51 +52,48 @@
     <t>terrifying</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>stupid</t>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
@@ -112,12 +112,6 @@
     <t>seriously</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
     <t>[UNK]</t>
   </si>
   <si>
@@ -136,46 +130,52 @@
     <t>great</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>powerful</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>powerful</t>
+    <t>first</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>real</t>
   </si>
   <si>
     <t>much</t>
@@ -184,25 +184,22 @@
     <t>true</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>watching</t>
+    <t>really</t>
   </si>
   <si>
     <t>media</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -563,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,10 +632,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -682,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -732,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9393939393939394</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5">
         <v>0.9</v>
@@ -782,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K6">
         <v>0.88</v>
@@ -832,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.7719298245614035</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.6923076923076923</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,16 +950,16 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.64</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.6206896551724138</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.6111111111111112</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,38 +1079,38 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7058823529411765</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="L12">
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="M12">
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L12">
-        <v>35</v>
-      </c>
-      <c r="M12">
-        <v>35</v>
-      </c>
       <c r="N12">
         <v>1</v>
       </c>
@@ -1124,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.6875</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.5789473684210527</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1182,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6923076923076923</v>
+        <v>0.675</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.5185185185185185</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6875</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -1250,31 +1247,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.4242424242424243</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>14</v>
-      </c>
-      <c r="M15">
-        <v>14</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1279,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.675</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1300,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.3541666666666667</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1332,13 +1329,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6470588235294118</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1350,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.3333333333333333</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1374,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,13 +1379,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5957446808510638</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1400,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.2377049180327869</v>
+        <v>0.3050847457627119</v>
       </c>
       <c r="L18">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1424,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>837</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1453,16 +1450,16 @@
         <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.1864406779661017</v>
+        <v>0.226775956284153</v>
       </c>
       <c r="L19">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="M19">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1474,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>48</v>
+        <v>849</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1482,13 +1479,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5507246376811594</v>
+        <v>0.55</v>
       </c>
       <c r="C20">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1500,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.1529411764705882</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L20">
         <v>13</v>
@@ -1524,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1553,10 +1550,10 @@
         <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.1384615384615385</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L21">
         <v>9</v>
@@ -1574,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1603,16 +1600,16 @@
         <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.1267605633802817</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1624,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1653,10 +1650,10 @@
         <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.1232876712328767</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L23">
         <v>9</v>
@@ -1674,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1703,16 +1700,16 @@
         <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.03812316715542522</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="L24">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M24">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1724,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>328</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1753,16 +1750,16 @@
         <v>23</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.03012048192771084</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1774,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>644</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1782,13 +1779,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3928571428571428</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1800,13 +1797,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.02432778489116517</v>
+        <v>0.0286144578313253</v>
       </c>
       <c r="L26">
         <v>19</v>
@@ -1824,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>762</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1832,149 +1829,127 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3214285714285715</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0.02592592592592593</v>
+      </c>
+      <c r="L27">
+        <v>14</v>
+      </c>
+      <c r="M27">
+        <v>14</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28">
+        <v>0.0211038961038961</v>
+      </c>
+      <c r="L28">
+        <v>13</v>
+      </c>
+      <c r="M28">
+        <v>13</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K27">
-        <v>0.02222222222222222</v>
-      </c>
-      <c r="L27">
-        <v>12</v>
-      </c>
-      <c r="M27">
-        <v>12</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.1153846153846154</v>
-      </c>
-      <c r="C28">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>69</v>
-      </c>
-      <c r="J28" s="1" t="s">
+      <c r="K29">
+        <v>0.01440092165898618</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K28">
-        <v>0.01623376623376623</v>
-      </c>
-      <c r="L28">
-        <v>10</v>
-      </c>
-      <c r="M28">
-        <v>10</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.0436241610738255</v>
-      </c>
-      <c r="C29">
-        <v>13</v>
-      </c>
-      <c r="D29">
-        <v>14</v>
-      </c>
-      <c r="E29">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F29">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>285</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K29">
-        <v>0.01324884792626728</v>
-      </c>
-      <c r="L29">
-        <v>23</v>
-      </c>
-      <c r="M29">
-        <v>23</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>1713</v>
+      <c r="K30">
+        <v>0.01408450704225352</v>
+      </c>
+      <c r="L30">
+        <v>11</v>
+      </c>
+      <c r="M30">
+        <v>11</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>770</v>
       </c>
     </row>
   </sheetData>
